--- a/Result.xlsx
+++ b/Result.xlsx
@@ -417,13 +417,13 @@
         <v>Bangladesh</v>
       </c>
       <c r="E2" t="str">
-        <v>Thu Jan 07 2021 00:49:39 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Sat Jan 09 2021 16:30:52 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F2" t="str">
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="G2" t="str">
-        <v>FAIL</v>
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -440,13 +440,13 @@
         <v>Visa</v>
       </c>
       <c r="E3" t="str">
-        <v>Thu Jan 07 2021 00:49:39 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Sat Jan 09 2021 16:30:52 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F3" t="str">
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="G3" t="str">
-        <v>FAIL</v>
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -463,13 +463,13 @@
         <v>Climate</v>
       </c>
       <c r="E4" t="str">
-        <v>Thu Jan 07 2021 00:49:39 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Sat Jan 09 2021 16:30:52 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F4" t="str">
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="G4" t="str">
-        <v>FAIL</v>
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         <v>Official language</v>
       </c>
       <c r="E5" t="str">
-        <v>Thu Jan 07 2021 00:49:39 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Sat Jan 09 2021 16:30:52 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F5" t="str">
         <v>FAIL</v>
@@ -509,13 +509,13 @@
         <v>Economy</v>
       </c>
       <c r="E6" t="str">
-        <v>Thu Jan 07 2021 00:49:39 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Sat Jan 09 2021 16:30:52 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F6" t="str">
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="G6" t="str">
-        <v>FAIL</v>
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -532,13 +532,13 @@
         <v>Culture</v>
       </c>
       <c r="E7" t="str">
-        <v>Thu Jan 07 2021 00:49:39 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Sat Jan 09 2021 16:30:52 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F7" t="str">
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="G7" t="str">
-        <v>FAIL</v>
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -555,13 +555,13 @@
         <v>Geography</v>
       </c>
       <c r="E8" t="str">
-        <v>Thu Jan 07 2021 00:49:39 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Sat Jan 09 2021 16:30:52 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F8" t="str">
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="G8" t="str">
-        <v>FAIL</v>
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -578,13 +578,13 @@
         <v>History</v>
       </c>
       <c r="E9" t="str">
-        <v>Thu Jan 07 2021 00:49:39 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Sat Jan 09 2021 16:30:52 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F9" t="str">
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="G9" t="str">
-        <v>FAIL</v>
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -601,13 +601,13 @@
         <v>Political system</v>
       </c>
       <c r="E10" t="str">
-        <v>Thu Jan 07 2021 00:49:39 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Sat Jan 09 2021 16:30:52 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F10" t="str">
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="G10" t="str">
-        <v>FAIL</v>
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -624,7 +624,7 @@
         <v>Dhaka</v>
       </c>
       <c r="E11" t="str">
-        <v>Thu Jan 07 2021 00:51:17 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Sat Jan 09 2021 16:31:45 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F11" t="str">
         <v>PASS</v>
@@ -647,7 +647,7 @@
         <v>Weather</v>
       </c>
       <c r="E12" t="str">
-        <v>Thu Jan 07 2021 00:51:17 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Sat Jan 09 2021 16:31:45 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F12" t="str">
         <v>PASS</v>
@@ -670,13 +670,13 @@
         <v>Events</v>
       </c>
       <c r="E13" t="str">
-        <v>Thu Jan 07 2021 00:51:17 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Sat Jan 09 2021 16:31:45 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F13" t="str">
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="G13" t="str">
-        <v>FAIL</v>
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -693,7 +693,7 @@
         <v>Climate</v>
       </c>
       <c r="E14" t="str">
-        <v>Thu Jan 07 2021 00:51:17 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Sat Jan 09 2021 16:31:45 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F14" t="str">
         <v>FAIL</v>
@@ -716,7 +716,7 @@
         <v>Economy</v>
       </c>
       <c r="E15" t="str">
-        <v>Thu Jan 07 2021 00:51:17 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Sat Jan 09 2021 16:31:45 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F15" t="str">
         <v>FAIL</v>
@@ -739,7 +739,7 @@
         <v>Culture</v>
       </c>
       <c r="E16" t="str">
-        <v>Thu Jan 07 2021 00:51:17 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Sat Jan 09 2021 16:31:45 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F16" t="str">
         <v>FAIL</v>
@@ -762,7 +762,7 @@
         <v>Demographics</v>
       </c>
       <c r="E17" t="str">
-        <v>Thu Jan 07 2021 00:51:17 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Sat Jan 09 2021 16:31:45 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F17" t="str">
         <v>FAIL</v>
